--- a/Unity/Assets/Config/Excel/SkillLevelConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillLevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1060,22 +1060,22 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6272727272727" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.1818181818182" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.2727272727273" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.8181818181818" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.5454545454545" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.87272727272727" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7583333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.1833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.275" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.8166666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.5416666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.75454545454545" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.75833333333333" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:7">
+    <row r="3" spans="3:7">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="3:7">
+    <row r="5" spans="3:7">
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>

--- a/Unity/Assets/Config/Excel/SkillLevelConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillLevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1054,28 +1054,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:G61"/>
+  <dimension ref="C3:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61:G239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.1833333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.275" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.8166666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.5416666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6272727272727" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.1818181818182" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.2727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.8181818181818" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.5454545454545" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.87272727272727" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.75833333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.75454545454545" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
+    <row r="3" ht="13.5" spans="3:7">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" ht="13.5" spans="3:7">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" ht="13.5" spans="3:7">
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2075,6 +2075,3032 @@
         <v>0</v>
       </c>
       <c r="G61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7">
+      <c r="C62" s="1">
+        <v>57</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="C63" s="1">
+        <v>58</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7">
+      <c r="C64" s="1">
+        <v>59</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="C65" s="1">
+        <v>60</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="C66" s="1">
+        <v>61</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7">
+      <c r="C67" s="1">
+        <v>62</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7">
+      <c r="C68" s="1">
+        <v>63</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7">
+      <c r="C69" s="1">
+        <v>64</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="C70" s="1">
+        <v>65</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7">
+      <c r="C71" s="1">
+        <v>66</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7">
+      <c r="C72" s="1">
+        <v>67</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7">
+      <c r="C73" s="1">
+        <v>68</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7">
+      <c r="C74" s="1">
+        <v>69</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7">
+      <c r="C75" s="1">
+        <v>70</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7">
+      <c r="C76" s="1">
+        <v>71</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7">
+      <c r="C77" s="1">
+        <v>72</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7">
+      <c r="C78" s="1">
+        <v>73</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7">
+      <c r="C79" s="1">
+        <v>74</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7">
+      <c r="C80" s="1">
+        <v>75</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="C81" s="1">
+        <v>76</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="C82" s="1">
+        <v>77</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7">
+      <c r="C83" s="1">
+        <v>78</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7">
+      <c r="C84" s="1">
+        <v>79</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7">
+      <c r="C85" s="1">
+        <v>80</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7">
+      <c r="C86" s="1">
+        <v>81</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7">
+      <c r="C87" s="1">
+        <v>82</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7">
+      <c r="C88" s="1">
+        <v>83</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7">
+      <c r="C89" s="1">
+        <v>84</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7">
+      <c r="C90" s="1">
+        <v>85</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7">
+      <c r="C91" s="1">
+        <v>86</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7">
+      <c r="C92" s="1">
+        <v>87</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7">
+      <c r="C93" s="1">
+        <v>88</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7">
+      <c r="C94" s="1">
+        <v>89</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7">
+      <c r="C95" s="1">
+        <v>90</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7">
+      <c r="C96" s="1">
+        <v>91</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7">
+      <c r="C97" s="1">
+        <v>92</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7">
+      <c r="C98" s="1">
+        <v>93</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7">
+      <c r="C99" s="1">
+        <v>94</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7">
+      <c r="C100" s="1">
+        <v>95</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7">
+      <c r="C101" s="1">
+        <v>96</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7">
+      <c r="C102" s="1">
+        <v>97</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7">
+      <c r="C103" s="1">
+        <v>98</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7">
+      <c r="C104" s="1">
+        <v>99</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7">
+      <c r="C105" s="1">
+        <v>100</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7">
+      <c r="C106" s="1">
+        <v>101</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7">
+      <c r="C107" s="1">
+        <v>102</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7">
+      <c r="C108" s="1">
+        <v>103</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7">
+      <c r="C109" s="1">
+        <v>104</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7">
+      <c r="C110" s="1">
+        <v>105</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7">
+      <c r="C111" s="1">
+        <v>106</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7">
+      <c r="C112" s="1">
+        <v>107</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7">
+      <c r="C113" s="1">
+        <v>108</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7">
+      <c r="C114" s="1">
+        <v>109</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7">
+      <c r="C115" s="1">
+        <v>110</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7">
+      <c r="C116" s="1">
+        <v>111</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:7">
+      <c r="C117" s="1">
+        <v>112</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="3:7">
+      <c r="C118" s="1">
+        <v>113</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:7">
+      <c r="C119" s="1">
+        <v>114</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:7">
+      <c r="C120" s="1">
+        <v>115</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
+      </c>
+      <c r="G120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:7">
+      <c r="C121" s="1">
+        <v>116</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0</v>
+      </c>
+      <c r="G121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7">
+      <c r="C122" s="1">
+        <v>117</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="3:7">
+      <c r="C123" s="1">
+        <v>118</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7">
+      <c r="C124" s="1">
+        <v>119</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7">
+      <c r="C125" s="1">
+        <v>120</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7">
+      <c r="C126" s="1">
+        <v>121</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7">
+      <c r="C127" s="1">
+        <v>122</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7">
+      <c r="C128" s="1">
+        <v>123</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0</v>
+      </c>
+      <c r="G128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7">
+      <c r="C129" s="1">
+        <v>124</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7">
+      <c r="C130" s="1">
+        <v>125</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7">
+      <c r="C131" s="1">
+        <v>126</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7">
+      <c r="C132" s="1">
+        <v>127</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+      <c r="G132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7">
+      <c r="C133" s="1">
+        <v>128</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+      <c r="G133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7">
+      <c r="C134" s="1">
+        <v>129</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0</v>
+      </c>
+      <c r="G134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7">
+      <c r="C135" s="1">
+        <v>130</v>
+      </c>
+      <c r="D135" s="1">
+        <v>1</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0</v>
+      </c>
+      <c r="G135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7">
+      <c r="C136" s="1">
+        <v>131</v>
+      </c>
+      <c r="D136" s="1">
+        <v>1</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0</v>
+      </c>
+      <c r="G136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7">
+      <c r="C137" s="1">
+        <v>132</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0</v>
+      </c>
+      <c r="G137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7">
+      <c r="C138" s="1">
+        <v>133</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0</v>
+      </c>
+      <c r="G138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="3:7">
+      <c r="C139" s="1">
+        <v>134</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0</v>
+      </c>
+      <c r="G139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7">
+      <c r="C140" s="1">
+        <v>135</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="F140" s="1">
+        <v>0</v>
+      </c>
+      <c r="G140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="3:7">
+      <c r="C141" s="1">
+        <v>136</v>
+      </c>
+      <c r="D141" s="1">
+        <v>1</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0</v>
+      </c>
+      <c r="G141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="3:7">
+      <c r="C142" s="1">
+        <v>137</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0</v>
+      </c>
+      <c r="G142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="3:7">
+      <c r="C143" s="1">
+        <v>138</v>
+      </c>
+      <c r="D143" s="1">
+        <v>1</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0</v>
+      </c>
+      <c r="G143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="3:7">
+      <c r="C144" s="1">
+        <v>139</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0</v>
+      </c>
+      <c r="G144" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7">
+      <c r="C145" s="1">
+        <v>140</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0</v>
+      </c>
+      <c r="G145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7">
+      <c r="C146" s="1">
+        <v>141</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0</v>
+      </c>
+      <c r="G146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7">
+      <c r="C147" s="1">
+        <v>142</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0</v>
+      </c>
+      <c r="G147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7">
+      <c r="C148" s="1">
+        <v>143</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0</v>
+      </c>
+      <c r="G148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7">
+      <c r="C149" s="1">
+        <v>144</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0</v>
+      </c>
+      <c r="G149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7">
+      <c r="C150" s="1">
+        <v>145</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0</v>
+      </c>
+      <c r="G150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7">
+      <c r="C151" s="1">
+        <v>146</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0</v>
+      </c>
+      <c r="G151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="3:7">
+      <c r="C152" s="1">
+        <v>147</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0</v>
+      </c>
+      <c r="G152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="3:7">
+      <c r="C153" s="1">
+        <v>148</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0</v>
+      </c>
+      <c r="G153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7">
+      <c r="C154" s="1">
+        <v>149</v>
+      </c>
+      <c r="D154" s="1">
+        <v>1</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0</v>
+      </c>
+      <c r="G154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7">
+      <c r="C155" s="1">
+        <v>150</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0</v>
+      </c>
+      <c r="G155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="3:7">
+      <c r="C156" s="1">
+        <v>151</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0</v>
+      </c>
+      <c r="G156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7">
+      <c r="C157" s="1">
+        <v>152</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+      <c r="G157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7">
+      <c r="C158" s="1">
+        <v>153</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0</v>
+      </c>
+      <c r="G158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="3:7">
+      <c r="C159" s="1">
+        <v>154</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0</v>
+      </c>
+      <c r="G159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="3:7">
+      <c r="C160" s="1">
+        <v>155</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0</v>
+      </c>
+      <c r="G160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="3:7">
+      <c r="C161" s="1">
+        <v>156</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0</v>
+      </c>
+      <c r="G161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="3:7">
+      <c r="C162" s="1">
+        <v>157</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0</v>
+      </c>
+      <c r="G162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="3:7">
+      <c r="C163" s="1">
+        <v>158</v>
+      </c>
+      <c r="D163" s="1">
+        <v>1</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0</v>
+      </c>
+      <c r="G163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="3:7">
+      <c r="C164" s="1">
+        <v>159</v>
+      </c>
+      <c r="D164" s="1">
+        <v>1</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0</v>
+      </c>
+      <c r="G164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7">
+      <c r="C165" s="1">
+        <v>160</v>
+      </c>
+      <c r="D165" s="1">
+        <v>1</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0</v>
+      </c>
+      <c r="G165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7">
+      <c r="C166" s="1">
+        <v>161</v>
+      </c>
+      <c r="D166" s="1">
+        <v>1</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0</v>
+      </c>
+      <c r="G166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="3:7">
+      <c r="C167" s="1">
+        <v>162</v>
+      </c>
+      <c r="D167" s="1">
+        <v>1</v>
+      </c>
+      <c r="E167" s="1">
+        <v>0</v>
+      </c>
+      <c r="F167" s="1">
+        <v>0</v>
+      </c>
+      <c r="G167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="3:7">
+      <c r="C168" s="1">
+        <v>163</v>
+      </c>
+      <c r="D168" s="1">
+        <v>1</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0</v>
+      </c>
+      <c r="F168" s="1">
+        <v>0</v>
+      </c>
+      <c r="G168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="3:7">
+      <c r="C169" s="1">
+        <v>164</v>
+      </c>
+      <c r="D169" s="1">
+        <v>1</v>
+      </c>
+      <c r="E169" s="1">
+        <v>0</v>
+      </c>
+      <c r="F169" s="1">
+        <v>0</v>
+      </c>
+      <c r="G169" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="3:7">
+      <c r="C170" s="1">
+        <v>165</v>
+      </c>
+      <c r="D170" s="1">
+        <v>1</v>
+      </c>
+      <c r="E170" s="1">
+        <v>0</v>
+      </c>
+      <c r="F170" s="1">
+        <v>0</v>
+      </c>
+      <c r="G170" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="3:7">
+      <c r="C171" s="1">
+        <v>166</v>
+      </c>
+      <c r="D171" s="1">
+        <v>1</v>
+      </c>
+      <c r="E171" s="1">
+        <v>0</v>
+      </c>
+      <c r="F171" s="1">
+        <v>0</v>
+      </c>
+      <c r="G171" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="3:7">
+      <c r="C172" s="1">
+        <v>167</v>
+      </c>
+      <c r="D172" s="1">
+        <v>1</v>
+      </c>
+      <c r="E172" s="1">
+        <v>0</v>
+      </c>
+      <c r="F172" s="1">
+        <v>0</v>
+      </c>
+      <c r="G172" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="3:7">
+      <c r="C173" s="1">
+        <v>168</v>
+      </c>
+      <c r="D173" s="1">
+        <v>1</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0</v>
+      </c>
+      <c r="F173" s="1">
+        <v>0</v>
+      </c>
+      <c r="G173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="3:7">
+      <c r="C174" s="1">
+        <v>169</v>
+      </c>
+      <c r="D174" s="1">
+        <v>1</v>
+      </c>
+      <c r="E174" s="1">
+        <v>0</v>
+      </c>
+      <c r="F174" s="1">
+        <v>0</v>
+      </c>
+      <c r="G174" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="3:7">
+      <c r="C175" s="1">
+        <v>170</v>
+      </c>
+      <c r="D175" s="1">
+        <v>1</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0</v>
+      </c>
+      <c r="F175" s="1">
+        <v>0</v>
+      </c>
+      <c r="G175" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="3:7">
+      <c r="C176" s="1">
+        <v>171</v>
+      </c>
+      <c r="D176" s="1">
+        <v>1</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0</v>
+      </c>
+      <c r="F176" s="1">
+        <v>0</v>
+      </c>
+      <c r="G176" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7">
+      <c r="C177" s="1">
+        <v>172</v>
+      </c>
+      <c r="D177" s="1">
+        <v>1</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0</v>
+      </c>
+      <c r="F177" s="1">
+        <v>0</v>
+      </c>
+      <c r="G177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7">
+      <c r="C178" s="1">
+        <v>173</v>
+      </c>
+      <c r="D178" s="1">
+        <v>1</v>
+      </c>
+      <c r="E178" s="1">
+        <v>0</v>
+      </c>
+      <c r="F178" s="1">
+        <v>0</v>
+      </c>
+      <c r="G178" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="3:7">
+      <c r="C179" s="1">
+        <v>174</v>
+      </c>
+      <c r="D179" s="1">
+        <v>1</v>
+      </c>
+      <c r="E179" s="1">
+        <v>0</v>
+      </c>
+      <c r="F179" s="1">
+        <v>0</v>
+      </c>
+      <c r="G179" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="3:7">
+      <c r="C180" s="1">
+        <v>175</v>
+      </c>
+      <c r="D180" s="1">
+        <v>1</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0</v>
+      </c>
+      <c r="F180" s="1">
+        <v>0</v>
+      </c>
+      <c r="G180" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="3:7">
+      <c r="C181" s="1">
+        <v>176</v>
+      </c>
+      <c r="D181" s="1">
+        <v>1</v>
+      </c>
+      <c r="E181" s="1">
+        <v>0</v>
+      </c>
+      <c r="F181" s="1">
+        <v>0</v>
+      </c>
+      <c r="G181" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="3:7">
+      <c r="C182" s="1">
+        <v>177</v>
+      </c>
+      <c r="D182" s="1">
+        <v>1</v>
+      </c>
+      <c r="E182" s="1">
+        <v>0</v>
+      </c>
+      <c r="F182" s="1">
+        <v>0</v>
+      </c>
+      <c r="G182" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="3:7">
+      <c r="C183" s="1">
+        <v>178</v>
+      </c>
+      <c r="D183" s="1">
+        <v>1</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0</v>
+      </c>
+      <c r="F183" s="1">
+        <v>0</v>
+      </c>
+      <c r="G183" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="3:7">
+      <c r="C184" s="1">
+        <v>179</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1</v>
+      </c>
+      <c r="E184" s="1">
+        <v>0</v>
+      </c>
+      <c r="F184" s="1">
+        <v>0</v>
+      </c>
+      <c r="G184" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="3:7">
+      <c r="C185" s="1">
+        <v>180</v>
+      </c>
+      <c r="D185" s="1">
+        <v>1</v>
+      </c>
+      <c r="E185" s="1">
+        <v>0</v>
+      </c>
+      <c r="F185" s="1">
+        <v>0</v>
+      </c>
+      <c r="G185" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="3:7">
+      <c r="C186" s="1">
+        <v>181</v>
+      </c>
+      <c r="D186" s="1">
+        <v>1</v>
+      </c>
+      <c r="E186" s="1">
+        <v>0</v>
+      </c>
+      <c r="F186" s="1">
+        <v>0</v>
+      </c>
+      <c r="G186" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="3:7">
+      <c r="C187" s="1">
+        <v>182</v>
+      </c>
+      <c r="D187" s="1">
+        <v>1</v>
+      </c>
+      <c r="E187" s="1">
+        <v>0</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0</v>
+      </c>
+      <c r="G187" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="3:7">
+      <c r="C188" s="1">
+        <v>183</v>
+      </c>
+      <c r="D188" s="1">
+        <v>1</v>
+      </c>
+      <c r="E188" s="1">
+        <v>0</v>
+      </c>
+      <c r="F188" s="1">
+        <v>0</v>
+      </c>
+      <c r="G188" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="3:7">
+      <c r="C189" s="1">
+        <v>184</v>
+      </c>
+      <c r="D189" s="1">
+        <v>1</v>
+      </c>
+      <c r="E189" s="1">
+        <v>0</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0</v>
+      </c>
+      <c r="G189" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="3:7">
+      <c r="C190" s="1">
+        <v>185</v>
+      </c>
+      <c r="D190" s="1">
+        <v>1</v>
+      </c>
+      <c r="E190" s="1">
+        <v>0</v>
+      </c>
+      <c r="F190" s="1">
+        <v>0</v>
+      </c>
+      <c r="G190" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="3:7">
+      <c r="C191" s="1">
+        <v>186</v>
+      </c>
+      <c r="D191" s="1">
+        <v>1</v>
+      </c>
+      <c r="E191" s="1">
+        <v>0</v>
+      </c>
+      <c r="F191" s="1">
+        <v>0</v>
+      </c>
+      <c r="G191" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="3:7">
+      <c r="C192" s="1">
+        <v>187</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1</v>
+      </c>
+      <c r="E192" s="1">
+        <v>0</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0</v>
+      </c>
+      <c r="G192" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="3:7">
+      <c r="C193" s="1">
+        <v>188</v>
+      </c>
+      <c r="D193" s="1">
+        <v>1</v>
+      </c>
+      <c r="E193" s="1">
+        <v>0</v>
+      </c>
+      <c r="F193" s="1">
+        <v>0</v>
+      </c>
+      <c r="G193" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="3:7">
+      <c r="C194" s="1">
+        <v>189</v>
+      </c>
+      <c r="D194" s="1">
+        <v>1</v>
+      </c>
+      <c r="E194" s="1">
+        <v>0</v>
+      </c>
+      <c r="F194" s="1">
+        <v>0</v>
+      </c>
+      <c r="G194" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="3:7">
+      <c r="C195" s="1">
+        <v>190</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1</v>
+      </c>
+      <c r="E195" s="1">
+        <v>0</v>
+      </c>
+      <c r="F195" s="1">
+        <v>0</v>
+      </c>
+      <c r="G195" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="3:7">
+      <c r="C196" s="1">
+        <v>191</v>
+      </c>
+      <c r="D196" s="1">
+        <v>1</v>
+      </c>
+      <c r="E196" s="1">
+        <v>0</v>
+      </c>
+      <c r="F196" s="1">
+        <v>0</v>
+      </c>
+      <c r="G196" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="3:7">
+      <c r="C197" s="1">
+        <v>192</v>
+      </c>
+      <c r="D197" s="1">
+        <v>1</v>
+      </c>
+      <c r="E197" s="1">
+        <v>0</v>
+      </c>
+      <c r="F197" s="1">
+        <v>0</v>
+      </c>
+      <c r="G197" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="3:7">
+      <c r="C198" s="1">
+        <v>193</v>
+      </c>
+      <c r="D198" s="1">
+        <v>1</v>
+      </c>
+      <c r="E198" s="1">
+        <v>0</v>
+      </c>
+      <c r="F198" s="1">
+        <v>0</v>
+      </c>
+      <c r="G198" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="3:7">
+      <c r="C199" s="1">
+        <v>194</v>
+      </c>
+      <c r="D199" s="1">
+        <v>1</v>
+      </c>
+      <c r="E199" s="1">
+        <v>0</v>
+      </c>
+      <c r="F199" s="1">
+        <v>0</v>
+      </c>
+      <c r="G199" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="3:7">
+      <c r="C200" s="1">
+        <v>195</v>
+      </c>
+      <c r="D200" s="1">
+        <v>1</v>
+      </c>
+      <c r="E200" s="1">
+        <v>0</v>
+      </c>
+      <c r="F200" s="1">
+        <v>0</v>
+      </c>
+      <c r="G200" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="3:7">
+      <c r="C201" s="1">
+        <v>196</v>
+      </c>
+      <c r="D201" s="1">
+        <v>1</v>
+      </c>
+      <c r="E201" s="1">
+        <v>0</v>
+      </c>
+      <c r="F201" s="1">
+        <v>0</v>
+      </c>
+      <c r="G201" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="3:7">
+      <c r="C202" s="1">
+        <v>197</v>
+      </c>
+      <c r="D202" s="1">
+        <v>1</v>
+      </c>
+      <c r="E202" s="1">
+        <v>0</v>
+      </c>
+      <c r="F202" s="1">
+        <v>0</v>
+      </c>
+      <c r="G202" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="3:7">
+      <c r="C203" s="1">
+        <v>198</v>
+      </c>
+      <c r="D203" s="1">
+        <v>1</v>
+      </c>
+      <c r="E203" s="1">
+        <v>0</v>
+      </c>
+      <c r="F203" s="1">
+        <v>0</v>
+      </c>
+      <c r="G203" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="3:7">
+      <c r="C204" s="1">
+        <v>199</v>
+      </c>
+      <c r="D204" s="1">
+        <v>1</v>
+      </c>
+      <c r="E204" s="1">
+        <v>0</v>
+      </c>
+      <c r="F204" s="1">
+        <v>0</v>
+      </c>
+      <c r="G204" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="3:7">
+      <c r="C205" s="1">
+        <v>200</v>
+      </c>
+      <c r="D205" s="1">
+        <v>1</v>
+      </c>
+      <c r="E205" s="1">
+        <v>0</v>
+      </c>
+      <c r="F205" s="1">
+        <v>0</v>
+      </c>
+      <c r="G205" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="3:7">
+      <c r="C206" s="1">
+        <v>201</v>
+      </c>
+      <c r="D206" s="1">
+        <v>1</v>
+      </c>
+      <c r="E206" s="1">
+        <v>0</v>
+      </c>
+      <c r="F206" s="1">
+        <v>0</v>
+      </c>
+      <c r="G206" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="3:7">
+      <c r="C207" s="1">
+        <v>202</v>
+      </c>
+      <c r="D207" s="1">
+        <v>1</v>
+      </c>
+      <c r="E207" s="1">
+        <v>0</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0</v>
+      </c>
+      <c r="G207" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="3:7">
+      <c r="C208" s="1">
+        <v>203</v>
+      </c>
+      <c r="D208" s="1">
+        <v>1</v>
+      </c>
+      <c r="E208" s="1">
+        <v>0</v>
+      </c>
+      <c r="F208" s="1">
+        <v>0</v>
+      </c>
+      <c r="G208" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="3:7">
+      <c r="C209" s="1">
+        <v>204</v>
+      </c>
+      <c r="D209" s="1">
+        <v>1</v>
+      </c>
+      <c r="E209" s="1">
+        <v>0</v>
+      </c>
+      <c r="F209" s="1">
+        <v>0</v>
+      </c>
+      <c r="G209" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="3:7">
+      <c r="C210" s="1">
+        <v>205</v>
+      </c>
+      <c r="D210" s="1">
+        <v>1</v>
+      </c>
+      <c r="E210" s="1">
+        <v>0</v>
+      </c>
+      <c r="F210" s="1">
+        <v>0</v>
+      </c>
+      <c r="G210" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="3:7">
+      <c r="C211" s="1">
+        <v>206</v>
+      </c>
+      <c r="D211" s="1">
+        <v>1</v>
+      </c>
+      <c r="E211" s="1">
+        <v>0</v>
+      </c>
+      <c r="F211" s="1">
+        <v>0</v>
+      </c>
+      <c r="G211" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="3:7">
+      <c r="C212" s="1">
+        <v>207</v>
+      </c>
+      <c r="D212" s="1">
+        <v>1</v>
+      </c>
+      <c r="E212" s="1">
+        <v>0</v>
+      </c>
+      <c r="F212" s="1">
+        <v>0</v>
+      </c>
+      <c r="G212" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="3:7">
+      <c r="C213" s="1">
+        <v>208</v>
+      </c>
+      <c r="D213" s="1">
+        <v>1</v>
+      </c>
+      <c r="E213" s="1">
+        <v>0</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0</v>
+      </c>
+      <c r="G213" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="3:7">
+      <c r="C214" s="1">
+        <v>209</v>
+      </c>
+      <c r="D214" s="1">
+        <v>1</v>
+      </c>
+      <c r="E214" s="1">
+        <v>0</v>
+      </c>
+      <c r="F214" s="1">
+        <v>0</v>
+      </c>
+      <c r="G214" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="3:7">
+      <c r="C215" s="1">
+        <v>210</v>
+      </c>
+      <c r="D215" s="1">
+        <v>1</v>
+      </c>
+      <c r="E215" s="1">
+        <v>0</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0</v>
+      </c>
+      <c r="G215" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="3:7">
+      <c r="C216" s="1">
+        <v>211</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1</v>
+      </c>
+      <c r="E216" s="1">
+        <v>0</v>
+      </c>
+      <c r="F216" s="1">
+        <v>0</v>
+      </c>
+      <c r="G216" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="3:7">
+      <c r="C217" s="1">
+        <v>212</v>
+      </c>
+      <c r="D217" s="1">
+        <v>1</v>
+      </c>
+      <c r="E217" s="1">
+        <v>0</v>
+      </c>
+      <c r="F217" s="1">
+        <v>0</v>
+      </c>
+      <c r="G217" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="3:7">
+      <c r="C218" s="1">
+        <v>213</v>
+      </c>
+      <c r="D218" s="1">
+        <v>1</v>
+      </c>
+      <c r="E218" s="1">
+        <v>0</v>
+      </c>
+      <c r="F218" s="1">
+        <v>0</v>
+      </c>
+      <c r="G218" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="3:7">
+      <c r="C219" s="1">
+        <v>214</v>
+      </c>
+      <c r="D219" s="1">
+        <v>1</v>
+      </c>
+      <c r="E219" s="1">
+        <v>0</v>
+      </c>
+      <c r="F219" s="1">
+        <v>0</v>
+      </c>
+      <c r="G219" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="3:7">
+      <c r="C220" s="1">
+        <v>215</v>
+      </c>
+      <c r="D220" s="1">
+        <v>1</v>
+      </c>
+      <c r="E220" s="1">
+        <v>0</v>
+      </c>
+      <c r="F220" s="1">
+        <v>0</v>
+      </c>
+      <c r="G220" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="3:7">
+      <c r="C221" s="1">
+        <v>216</v>
+      </c>
+      <c r="D221" s="1">
+        <v>1</v>
+      </c>
+      <c r="E221" s="1">
+        <v>0</v>
+      </c>
+      <c r="F221" s="1">
+        <v>0</v>
+      </c>
+      <c r="G221" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="3:7">
+      <c r="C222" s="1">
+        <v>217</v>
+      </c>
+      <c r="D222" s="1">
+        <v>1</v>
+      </c>
+      <c r="E222" s="1">
+        <v>0</v>
+      </c>
+      <c r="F222" s="1">
+        <v>0</v>
+      </c>
+      <c r="G222" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="3:7">
+      <c r="C223" s="1">
+        <v>218</v>
+      </c>
+      <c r="D223" s="1">
+        <v>1</v>
+      </c>
+      <c r="E223" s="1">
+        <v>0</v>
+      </c>
+      <c r="F223" s="1">
+        <v>0</v>
+      </c>
+      <c r="G223" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="3:7">
+      <c r="C224" s="1">
+        <v>219</v>
+      </c>
+      <c r="D224" s="1">
+        <v>1</v>
+      </c>
+      <c r="E224" s="1">
+        <v>0</v>
+      </c>
+      <c r="F224" s="1">
+        <v>0</v>
+      </c>
+      <c r="G224" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="3:7">
+      <c r="C225" s="1">
+        <v>220</v>
+      </c>
+      <c r="D225" s="1">
+        <v>1</v>
+      </c>
+      <c r="E225" s="1">
+        <v>0</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0</v>
+      </c>
+      <c r="G225" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="3:7">
+      <c r="C226" s="1">
+        <v>221</v>
+      </c>
+      <c r="D226" s="1">
+        <v>1</v>
+      </c>
+      <c r="E226" s="1">
+        <v>0</v>
+      </c>
+      <c r="F226" s="1">
+        <v>0</v>
+      </c>
+      <c r="G226" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="3:7">
+      <c r="C227" s="1">
+        <v>222</v>
+      </c>
+      <c r="D227" s="1">
+        <v>1</v>
+      </c>
+      <c r="E227" s="1">
+        <v>0</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0</v>
+      </c>
+      <c r="G227" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="3:7">
+      <c r="C228" s="1">
+        <v>223</v>
+      </c>
+      <c r="D228" s="1">
+        <v>1</v>
+      </c>
+      <c r="E228" s="1">
+        <v>0</v>
+      </c>
+      <c r="F228" s="1">
+        <v>0</v>
+      </c>
+      <c r="G228" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="3:7">
+      <c r="C229" s="1">
+        <v>224</v>
+      </c>
+      <c r="D229" s="1">
+        <v>1</v>
+      </c>
+      <c r="E229" s="1">
+        <v>0</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0</v>
+      </c>
+      <c r="G229" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="3:7">
+      <c r="C230" s="1">
+        <v>225</v>
+      </c>
+      <c r="D230" s="1">
+        <v>1</v>
+      </c>
+      <c r="E230" s="1">
+        <v>0</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0</v>
+      </c>
+      <c r="G230" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="3:7">
+      <c r="C231" s="1">
+        <v>226</v>
+      </c>
+      <c r="D231" s="1">
+        <v>1</v>
+      </c>
+      <c r="E231" s="1">
+        <v>0</v>
+      </c>
+      <c r="F231" s="1">
+        <v>0</v>
+      </c>
+      <c r="G231" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="3:7">
+      <c r="C232" s="1">
+        <v>227</v>
+      </c>
+      <c r="D232" s="1">
+        <v>1</v>
+      </c>
+      <c r="E232" s="1">
+        <v>0</v>
+      </c>
+      <c r="F232" s="1">
+        <v>0</v>
+      </c>
+      <c r="G232" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="3:7">
+      <c r="C233" s="1">
+        <v>228</v>
+      </c>
+      <c r="D233" s="1">
+        <v>1</v>
+      </c>
+      <c r="E233" s="1">
+        <v>0</v>
+      </c>
+      <c r="F233" s="1">
+        <v>0</v>
+      </c>
+      <c r="G233" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="3:7">
+      <c r="C234" s="1">
+        <v>229</v>
+      </c>
+      <c r="D234" s="1">
+        <v>1</v>
+      </c>
+      <c r="E234" s="1">
+        <v>0</v>
+      </c>
+      <c r="F234" s="1">
+        <v>0</v>
+      </c>
+      <c r="G234" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="3:7">
+      <c r="C235" s="1">
+        <v>230</v>
+      </c>
+      <c r="D235" s="1">
+        <v>1</v>
+      </c>
+      <c r="E235" s="1">
+        <v>0</v>
+      </c>
+      <c r="F235" s="1">
+        <v>0</v>
+      </c>
+      <c r="G235" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="3:7">
+      <c r="C236" s="1">
+        <v>231</v>
+      </c>
+      <c r="D236" s="1">
+        <v>1</v>
+      </c>
+      <c r="E236" s="1">
+        <v>0</v>
+      </c>
+      <c r="F236" s="1">
+        <v>0</v>
+      </c>
+      <c r="G236" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="3:7">
+      <c r="C237" s="1">
+        <v>232</v>
+      </c>
+      <c r="D237" s="1">
+        <v>1</v>
+      </c>
+      <c r="E237" s="1">
+        <v>0</v>
+      </c>
+      <c r="F237" s="1">
+        <v>0</v>
+      </c>
+      <c r="G237" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="3:7">
+      <c r="C238" s="1">
+        <v>233</v>
+      </c>
+      <c r="D238" s="1">
+        <v>1</v>
+      </c>
+      <c r="E238" s="1">
+        <v>0</v>
+      </c>
+      <c r="F238" s="1">
+        <v>0</v>
+      </c>
+      <c r="G238" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="3:7">
+      <c r="C239" s="1">
+        <v>234</v>
+      </c>
+      <c r="D239" s="1">
+        <v>1</v>
+      </c>
+      <c r="E239" s="1">
+        <v>0</v>
+      </c>
+      <c r="F239" s="1">
+        <v>0</v>
+      </c>
+      <c r="G239" s="4">
         <v>0</v>
       </c>
     </row>
